--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail7 Features.xlsx
@@ -3321,7 +3321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3332,29 +3332,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3375,115 +3373,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3500,72 +3488,66 @@
         <v>2.63165220252295e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.158364540404195</v>
+        <v>1.59644040829601e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.42853053476268</v>
+        <v>8.752307227502763e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.59644040829601e-06</v>
+        <v>0.1011609607691613</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.752307227502763e-06</v>
+        <v>0.1928516547159294</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1011609607691613</v>
+        <v>0.04737421772623247</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1928516547159294</v>
+        <v>1.669044704804394</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04737421772623247</v>
+        <v>1.593113378454134</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.567061116152572</v>
+        <v>3.554970842188006</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.593113378454134</v>
+        <v>4.477141121356155e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.554970842188006</v>
+        <v>13122143.14122946</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.477141121356155e-14</v>
+        <v>8.625229690829271e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>13122143.14122946</v>
+        <v>7.709217978276058</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.625229690829271e-06</v>
+        <v>0.0001694433704624758</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.709217978276058</v>
+        <v>9.942348539228945</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001694433704624758</v>
+        <v>1.322852857197357</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.942348539228945</v>
+        <v>0.01674952706713832</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.322852857197357</v>
+        <v>2.864213986856333</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01674952706713832</v>
+        <v>0.9505610464318559</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.864213986856333</v>
+        <v>1.794691424154453</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9505610464318559</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.794691424154453</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1566528505784928</v>
       </c>
     </row>
@@ -3580,72 +3562,66 @@
         <v>2.441233986274571e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.6008848164956473</v>
+        <v>1.422174918657367e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.391135744060675</v>
+        <v>8.777437231564908e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.422174918657367e-06</v>
+        <v>0.09713420682171788</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.777437231564908e-06</v>
+        <v>0.1843623293894818</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09713420682171788</v>
+        <v>0.04338915090926702</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1843623293894818</v>
+        <v>1.69062243432587</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04338915090926702</v>
+        <v>1.637390707363655</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.592022208432249</v>
+        <v>3.447028109616148</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.637390707363655</v>
+        <v>5.064181935405149e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.447028109616148</v>
+        <v>11525362.75671345</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.064181935405149e-14</v>
+        <v>9.879046882564025e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>11525362.75671345</v>
+        <v>6.726954757214961</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.879046882564025e-06</v>
+        <v>0.0001656020321157902</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.726954757214961</v>
+        <v>11.26585505597715</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001656020321157902</v>
+        <v>1.085390088037364</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.26585505597715</v>
+        <v>0.02101812548266254</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.085390088037364</v>
+        <v>2.712510087765428</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02101812548266254</v>
+        <v>0.9512347464194185</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.712510087765428</v>
+        <v>1.777756962139213</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9512347464194185</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.777756962139213</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1620011457186558</v>
       </c>
     </row>
@@ -3660,72 +3636,66 @@
         <v>2.333482185453882e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1226500035042868</v>
+        <v>1.261458433153665e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.775229480209676</v>
+        <v>8.799772174508171e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.261458433153665e-06</v>
+        <v>0.08995439896455339</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.799772174508171e-06</v>
+        <v>0.176280415760059</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08995439896455339</v>
+        <v>0.03914108096946324</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.176280415760059</v>
+        <v>1.704944983303674</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03914108096946324</v>
+        <v>1.548988832954652</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.613427685661604</v>
+        <v>3.34385208937671</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.548988832954652</v>
+        <v>5.381518432233611e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.34385208937671</v>
+        <v>11091541.58084027</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.381518432233611e-14</v>
+        <v>1.027867177984329e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>11091541.58084027</v>
+        <v>6.620467461781906</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.027867177984329e-05</v>
+        <v>0.000171275346108146</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.620467461781906</v>
+        <v>11.99415327268567</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000171275346108146</v>
+        <v>1.044748529225162</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.99415327268567</v>
+        <v>0.02463962208862251</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.044748529225162</v>
+        <v>2.633834486819811</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02463962208862251</v>
+        <v>0.950302787800882</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.633834486819811</v>
+        <v>1.746548954325303</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.950302787800882</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.746548954325303</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1642038694717282</v>
       </c>
     </row>
@@ -3740,72 +3710,66 @@
         <v>2.276090641074919e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2122306659435938</v>
+        <v>1.132860265543148e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.4424895181512762</v>
+        <v>8.819478652818419e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.132860265543148e-06</v>
+        <v>0.08130318556669715</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.819478652818419e-06</v>
+        <v>0.1712188392782051</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08130318556669715</v>
+        <v>0.03591167665073594</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1712188392782051</v>
+        <v>1.69780677062272</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03591167665073594</v>
+        <v>1.531789565787399</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.607805767870935</v>
+        <v>3.470755046596235</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.531789565787399</v>
+        <v>4.995178614341923e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.470755046596235</v>
+        <v>12119913.44500776</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.995178614341923e-14</v>
+        <v>9.422203709902542e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>12119913.44500776</v>
+        <v>7.337532851346675</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.422203709902542e-06</v>
+        <v>0.0001853113358221455</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.337532851346675</v>
+        <v>11.42334182130757</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001853113358221455</v>
+        <v>1.188720606417672</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.42334182130757</v>
+        <v>0.02418178366177372</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.188720606417672</v>
+        <v>2.766729471498954</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02418178366177372</v>
+        <v>0.9501930706636257</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.766729471498954</v>
+        <v>1.752589104140679</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9501930706636257</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.752589104140679</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1570023873364007</v>
       </c>
     </row>
@@ -3820,72 +3784,66 @@
         <v>2.242762174253978e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4230756709624354</v>
+        <v>1.043629736506316e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.2142237072373203</v>
+        <v>8.83699180837886e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.043629736506316e-06</v>
+        <v>0.07425721144025781</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.83699180837886e-06</v>
+        <v>0.1702148424797122</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.07425721144025781</v>
+        <v>0.03448057942449348</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1702148424797122</v>
+        <v>1.713945523620626</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03448057942449348</v>
+        <v>1.716927758070768</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.623284291366106</v>
+        <v>3.466167457651347</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.716927758070768</v>
+        <v>5.008409937641527e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.466167457651347</v>
+        <v>12746353.11560573</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.008409937641527e-14</v>
+        <v>9.067799833396512e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>12746353.11560573</v>
+        <v>8.137139472514667</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.067799833396512e-06</v>
+        <v>0.0002131399941578227</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.137139472514667</v>
+        <v>9.919168971311967</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002131399941578227</v>
+        <v>1.519839768228716</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.919168971311967</v>
+        <v>0.0209708254993664</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.519839768228716</v>
+        <v>2.765881559066778</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0209708254993664</v>
+        <v>0.94995123879065</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.765881559066778</v>
+        <v>1.763417169535726</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.94995123879065</v>
+        <v>9</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.763417169535726</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1449059706072974</v>
       </c>
     </row>
@@ -3900,72 +3858,66 @@
         <v>2.223183441442766e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5596224341031467</v>
+        <v>9.788529640238678e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.01567308923194055</v>
+        <v>8.853060235084998e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.788529640238678e-07</v>
+        <v>0.07032790380522724</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.853060235084998e-06</v>
+        <v>0.1696024451657403</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.07032790380522724</v>
+        <v>0.03370677571759097</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1696024451657403</v>
+        <v>1.707065211511934</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03370677571759097</v>
+        <v>1.687145392211922</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.615248212363122</v>
+        <v>3.221611153365073</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.687145392211922</v>
+        <v>5.797659553238792e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.221611153365073</v>
+        <v>11032115.65389038</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.797659553238792e-14</v>
+        <v>1.045959849675217e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>11032115.65389038</v>
+        <v>7.056190895431195</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.045959849675217e-05</v>
+        <v>0.0002049333521913526</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.056190895431195</v>
+        <v>9.267688722805733</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002049333521913526</v>
+        <v>1.565992548318845</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.267688722805733</v>
+        <v>0.01760173673997699</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.565992548318845</v>
+        <v>2.751557484997888</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01760173673997699</v>
+        <v>0.9504240670494891</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.751557484997888</v>
+        <v>1.779534664253447</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9504240670494891</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.779534664253447</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1406747826878762</v>
       </c>
     </row>
@@ -3980,72 +3932,66 @@
         <v>2.220243473069856e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6567896625608211</v>
+        <v>9.283433274134065e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.1618512351773398</v>
+        <v>8.868505238118356e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.283433274134065e-07</v>
+        <v>0.06908129920256999</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.868505238118356e-06</v>
+        <v>0.1689018274383981</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.06908129920256999</v>
+        <v>0.03329622821824702</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1689018274383981</v>
+        <v>1.670006914128159</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03329622821824702</v>
+        <v>1.683373830014561</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.574740150645289</v>
+        <v>3.188757245744424</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.683373830014561</v>
+        <v>5.91774207868189e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.188757245744424</v>
+        <v>10911349.06386794</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.91774207868189e-14</v>
+        <v>1.045682631188107e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>10911349.06386794</v>
+        <v>7.045518047359244</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.045682631188107e-05</v>
+        <v>0.0001781467189471633</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.045518047359244</v>
+        <v>10.46775308735531</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001781467189471633</v>
+        <v>1.178448738136852</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.46775308735531</v>
+        <v>0.0195202226968128</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.178448738136852</v>
+        <v>2.696842680282065</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0195202226968128</v>
+        <v>0.9513347012335983</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.696842680282065</v>
+        <v>1.773246237026746</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9513347012335983</v>
+        <v>7</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.773246237026746</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1523797037144661</v>
       </c>
     </row>
@@ -4060,72 +4006,66 @@
         <v>2.234932150719782e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.731296472411554</v>
+        <v>9.17162089621598e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3132574060525095</v>
+        <v>8.883805965994107e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.17162089621598e-07</v>
+        <v>0.0684109420277895</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.883805965994107e-06</v>
+        <v>0.1676488704265039</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0684109420277895</v>
+        <v>0.0327824297598935</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1676488704265039</v>
+        <v>1.680485352980163</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0327824297598935</v>
+        <v>1.693279380934798</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.583982191834388</v>
+        <v>3.190923582223982</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.693279380934798</v>
+        <v>5.909709627583476e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.190923582223982</v>
+        <v>10910686.32076316</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.909709627583476e-14</v>
+        <v>1.049680276387505e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>10910686.32076316</v>
+        <v>7.035100122757762</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.049680276387505e-05</v>
+        <v>0.0001752523682293515</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7.035100122757762</v>
+        <v>11.72033251522068</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001752523682293515</v>
+        <v>1.061280969678236</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.72033251522068</v>
+        <v>0.02407375086000435</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.061280969678236</v>
+        <v>2.543198813019392</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02407375086000435</v>
+        <v>0.9538128891330818</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.543198813019392</v>
+        <v>1.778536913447175</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9538128891330818</v>
+        <v>4</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.778536913447175</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1622981153148474</v>
       </c>
     </row>
@@ -4140,72 +4080,66 @@
         <v>2.267855705116564e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7880611246256258</v>
+        <v>9.238869596006577e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4265670967211173</v>
+        <v>8.899133148229937e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.238869596006577e-07</v>
+        <v>0.0679182380720927</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.899133148229937e-06</v>
+        <v>0.1656509336845843</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0679182380720927</v>
+        <v>0.03204683024215826</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1656509336845843</v>
+        <v>1.6624283616978</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03204683024215826</v>
+        <v>1.600034219811709</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.566984097492874</v>
+        <v>3.200211674710957</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.600034219811709</v>
+        <v>5.875455471528256e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.200211674710957</v>
+        <v>11062955.23836824</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.875455471528256e-14</v>
+        <v>1.027046915087671e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>11062955.23836824</v>
+        <v>7.190909940061957</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.027046915087671e-05</v>
+        <v>0.0001652972662734322</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7.190909940061957</v>
+        <v>11.37053405541151</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001652972662734322</v>
+        <v>1.079554036015426</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.37053405541151</v>
+        <v>0.02137112564888518</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.079554036015426</v>
+        <v>2.690417691041563</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02137112564888518</v>
+        <v>0.9529761309010788</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.690417691041563</v>
+        <v>1.784994160003472</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9529761309010788</v>
+        <v>4</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.784994160003472</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1666514588521346</v>
       </c>
     </row>
@@ -4220,72 +4154,66 @@
         <v>2.323946756425439e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8274046353819814</v>
+        <v>9.206478416882451e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.4821080934274105</v>
+        <v>8.914543444150655e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.206478416882451e-07</v>
+        <v>0.06604529831767911</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.914543444150655e-06</v>
+        <v>0.1614316502358916</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.06604529831767911</v>
+        <v>0.03041665368146971</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1614316502358916</v>
+        <v>1.629434161424296</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03041665368146971</v>
+        <v>1.550418274649713</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.534454611625907</v>
+        <v>3.269613584815684</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.550418274649713</v>
+        <v>5.628673939775743e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.269613584815684</v>
+        <v>11481639.5598602</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.628673939775743e-14</v>
+        <v>9.747329019521568e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>11481639.5598602</v>
+        <v>7.420170925821933</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>9.747329019521568e-06</v>
+        <v>0.0001622839767977744</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7.420170925821933</v>
+        <v>9.524851683344647</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001622839767977744</v>
+        <v>1.407771795408346</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.524851683344647</v>
+        <v>0.01472285670364618</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.407771795408346</v>
+        <v>2.981633097533615</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01472285670364618</v>
+        <v>0.950674723467255</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.981633097533615</v>
+        <v>1.797148757565292</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.950674723467255</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.797148757565292</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.163333965891017</v>
       </c>
     </row>
@@ -4300,72 +4228,66 @@
         <v>2.398201586027441e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8410675595718041</v>
+        <v>8.967254358316088e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5142169295937613</v>
+        <v>8.929702782402157e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.967254358316088e-07</v>
+        <v>0.06232621752617756</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.929702782402157e-06</v>
+        <v>0.1553982087812416</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.06232621752617756</v>
+        <v>0.02803150899538299</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1553982087812416</v>
+        <v>1.619704230382084</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02803150899538299</v>
+        <v>1.525363956035678</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.526094062302119</v>
+        <v>3.3857790270478</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.525363956035678</v>
+        <v>5.052008110821737e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.3857790270478</v>
+        <v>12529326.03279036</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.052008110821737e-14</v>
+        <v>8.867225374710041e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>12529326.03279036</v>
+        <v>7.930844960125881</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.867225374710041e-06</v>
+        <v>0.0001895768458489563</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7.930844960125881</v>
+        <v>8.918891873023354</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001895768458489563</v>
+        <v>1.8754868728238</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.918891873023354</v>
+        <v>0.01508019963847454</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.8754868728238</v>
+        <v>3.047003515099243</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01508019963847454</v>
+        <v>0.9489747560787091</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.047003515099243</v>
+        <v>1.80896533597799</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9489747560787091</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.80896533597799</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1557889711637554</v>
       </c>
     </row>
@@ -4380,72 +4302,66 @@
         <v>2.476158810709983e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8293534903291198</v>
+        <v>8.734776452161055e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5738836220235943</v>
+        <v>8.944438807190123e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.734776452161055e-07</v>
+        <v>0.05878859666710662</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.944438807190123e-06</v>
+        <v>0.1503391505202673</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05878859666710662</v>
+        <v>0.02605808822826891</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1503391505202673</v>
+        <v>1.611160069122492</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02605808822826891</v>
+        <v>1.58907275151151</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.515417024616265</v>
+        <v>3.717213060548355</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.58907275151151</v>
+        <v>4.191276875674582e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.717213060548355</v>
+        <v>15240046.29550469</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.191276875674582e-14</v>
+        <v>7.222559938681616e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>15240046.29550469</v>
+        <v>9.734618223449013</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.222559938681616e-06</v>
+        <v>0.0001655801545910508</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9.734618223449013</v>
+        <v>10.04049340798003</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001655801545910508</v>
+        <v>1.475565437080302</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.04049340798003</v>
+        <v>0.01669238505861376</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.475565437080302</v>
+        <v>3.057226196997361</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01669238505861376</v>
+        <v>0.9489800592588058</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.057226196997361</v>
+        <v>1.827535517780796</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9489800592588058</v>
+        <v>5</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.827535517780796</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1696696636916636</v>
       </c>
     </row>
@@ -4460,72 +4376,66 @@
         <v>2.54594507152751e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.7990526482417871</v>
+        <v>8.647534802358974e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.6705469626095599</v>
+        <v>8.958813904031284e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.647534802358974e-07</v>
+        <v>0.05549744772489485</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.958813904031284e-06</v>
+        <v>0.1471241230876283</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05549744772489485</v>
+        <v>0.02472460998160473</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1471241230876283</v>
+        <v>1.639485410410255</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02472460998160473</v>
+        <v>1.59832359590106</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.54365653703259</v>
+        <v>3.856889728660092</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.59832359590106</v>
+        <v>4.440987986665936e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.856889728660092</v>
+        <v>14183461.6957369</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.440987986665936e-14</v>
+        <v>7.882746426226556e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>14183461.6957369</v>
+        <v>8.933961542507197</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.882746426226556e-06</v>
+        <v>0.0001529621696702776</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8.933961542507197</v>
+        <v>11.49959839752957</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001529621696702776</v>
+        <v>1.143478317240459</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.49959839752957</v>
+        <v>0.02022783407390454</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.143478317240459</v>
+        <v>2.866162233160978</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02022783407390454</v>
+        <v>0.9507380965869656</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.866162233160978</v>
+        <v>1.780609880905596</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9507380965869656</v>
+        <v>4</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.780609880905596</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1795286867466858</v>
       </c>
     </row>
@@ -4540,72 +4450,66 @@
         <v>2.595258078120028e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.7521159666076533</v>
+        <v>8.636367532595185e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.8021487109230008</v>
+        <v>8.97253926174481e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.636367532595185e-07</v>
+        <v>0.05101352899250798</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.97253926174481e-06</v>
+        <v>0.1479375879993632</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05101352899250798</v>
+        <v>0.02448433406932514</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1479375879993632</v>
+        <v>1.626828197958378</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02448433406932514</v>
+        <v>1.62473451714159</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.532415094077674</v>
+        <v>3.780002991752158</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.62473451714159</v>
+        <v>4.623488222847741e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.780002991752158</v>
+        <v>13817275.99032244</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.623488222847741e-14</v>
+        <v>8.05609967898472e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>13817275.99032244</v>
+        <v>8.827030364077968</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.05609967898472e-06</v>
+        <v>0.000148482633799201</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8.827030364077968</v>
+        <v>11.19531464025324</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.000148482633799201</v>
+        <v>1.110597461099095</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.19531464025324</v>
+        <v>0.01861008128530794</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.110597461099095</v>
+        <v>2.752230351482508</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01861008128530794</v>
+        <v>0.9510974235241013</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.752230351482508</v>
+        <v>1.779870680512954</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9510974235241013</v>
+        <v>4</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.779870680512954</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1832781022728465</v>
       </c>
     </row>
@@ -4620,72 +4524,66 @@
         <v>2.619130688484179e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6956520002804649</v>
+        <v>8.634959878220771e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9406575071792775</v>
+        <v>8.985244520056066e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.634959878220771e-07</v>
+        <v>0.04646639238229112</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.985244520056066e-06</v>
+        <v>0.1512641930175509</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04646639238229112</v>
+        <v>0.0250368562885117</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1512641930175509</v>
+        <v>1.604363657716268</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0250368562885117</v>
+        <v>1.578475416256174</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.509552693577021</v>
+        <v>3.727557490979047</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.578475416256174</v>
+        <v>4.75450536776121e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.727557490979047</v>
+        <v>13406752.51203502</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.75450536776121e-14</v>
+        <v>8.263796605181379e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>13406752.51203502</v>
+        <v>8.545796107300195</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.263796605181379e-06</v>
+        <v>0.000136663290162638</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8.545796107300195</v>
+        <v>9.556755678585112</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000136663290162638</v>
+        <v>1.267918866542565</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.556755678585112</v>
+        <v>0.01248167409557829</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.267918866542565</v>
+        <v>3.047398280314983</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01248167409557829</v>
+        <v>0.950783157272581</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.047398280314983</v>
+        <v>1.831126959103401</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.950783157272581</v>
+        <v>5</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.831126959103401</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1817496940059999</v>
       </c>
     </row>
@@ -4700,72 +4598,66 @@
         <v>2.622989591652057e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6391974351254242</v>
+        <v>8.580417371393752e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.060739595262489</v>
+        <v>8.99695107324158e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.580417371393752e-07</v>
+        <v>0.04297757360491371</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.99695107324158e-06</v>
+        <v>0.1539179710760164</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04297757360491371</v>
+        <v>0.02553676033014271</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1539179710760164</v>
+        <v>1.606898620626159</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02553676033014271</v>
+        <v>1.56196067872823</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.509453451221308</v>
+        <v>3.523422669275591</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.56196067872823</v>
+        <v>5.321383448051063e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.523422669275591</v>
+        <v>12069194.24045589</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.321383448051063e-14</v>
+        <v>9.200718125846686e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>12069194.24045589</v>
+        <v>7.751417125280764</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.200718125846686e-06</v>
+        <v>0.0001518347965858713</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>7.751417125280764</v>
+        <v>9.076575654640488</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001518347965858713</v>
+        <v>1.737809729053409</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.076575654640488</v>
+        <v>0.01250879213804884</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.737809729053409</v>
+        <v>3.198817158848862</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01250879213804884</v>
+        <v>0.950577121330283</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.198817158848862</v>
+        <v>1.82473448474579</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.950577121330283</v>
+        <v>5</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.82473448474579</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1767683947755077</v>
       </c>
     </row>
@@ -5142,7 +5034,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.447509868712116</v>
+        <v>1.421618153661749</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.345467549786503</v>
@@ -5231,7 +5123,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48203790846243</v>
+        <v>1.4520491879953</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.717065335899809</v>
@@ -5320,7 +5212,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.458014763073112</v>
+        <v>1.429599137049826</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.591781234838576</v>
@@ -5409,7 +5301,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.44044249803281</v>
+        <v>1.413388193920669</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.616230096595664</v>
@@ -5498,7 +5390,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.443534284323978</v>
+        <v>1.414063707205289</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.532540216944485</v>
@@ -5587,7 +5479,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.438991517102306</v>
+        <v>1.411699925064878</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.468579205581005</v>
@@ -5676,7 +5568,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.440181949880127</v>
+        <v>1.408971304002879</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.427262533254264</v>
@@ -5765,7 +5657,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.434544373018022</v>
+        <v>1.394555821374426</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.4059517725455</v>
@@ -5854,7 +5746,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.421823810924611</v>
+        <v>1.379091381239568</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.316668233810279</v>
@@ -5943,7 +5835,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.433112318225064</v>
+        <v>1.388426740816781</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.68491578126831</v>
@@ -6032,7 +5924,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.426785587035184</v>
+        <v>1.377931095439531</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.659516757351454</v>
@@ -6121,7 +6013,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.422460053388573</v>
+        <v>1.369845267773309</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.294060507063314</v>
@@ -6210,7 +6102,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.437306874226182</v>
+        <v>1.384359715262684</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.453518051202213</v>
@@ -6299,7 +6191,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.42974054391918</v>
+        <v>1.378827112889441</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.370026109436717</v>
@@ -6388,7 +6280,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.431611136011471</v>
+        <v>1.380880077769832</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.647581296587083</v>
@@ -6477,7 +6369,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.43705140983429</v>
+        <v>1.382623601608036</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.631233449867135</v>
@@ -6566,7 +6458,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.438644657233479</v>
+        <v>1.381346711030058</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.642786806501415</v>
@@ -6655,7 +6547,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.459683021176547</v>
+        <v>1.396543031558301</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.530799980401023</v>
@@ -6744,7 +6636,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.490137188817162</v>
+        <v>1.415811447604211</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.3870985393858</v>
@@ -6833,7 +6725,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.46955778251582</v>
+        <v>1.399294061150523</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.607336391218932</v>
@@ -6922,7 +6814,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.470501700696516</v>
+        <v>1.402422001350839</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.648992494555285</v>
@@ -7011,7 +6903,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.464894164965479</v>
+        <v>1.400854140060246</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.48880310449418</v>
@@ -7100,7 +6992,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.478389913862585</v>
+        <v>1.413892766908788</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.675431466249554</v>
@@ -7189,7 +7081,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.481290868471027</v>
+        <v>1.41438904887436</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.479774314145669</v>
@@ -7278,7 +7170,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.481877324315519</v>
+        <v>1.4152849791382</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.507412495172276</v>
@@ -7367,7 +7259,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.489094409649667</v>
+        <v>1.424154564123858</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.540023698244431</v>
@@ -7456,7 +7348,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.496907237988038</v>
+        <v>1.43608212019227</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.535295444897513</v>
@@ -7545,7 +7437,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.505201283827996</v>
+        <v>1.442499519131722</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.601371974074804</v>
@@ -7634,7 +7526,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.492239044631605</v>
+        <v>1.432935226574155</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.656888921090814</v>
@@ -7723,7 +7615,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.484392212807345</v>
+        <v>1.424023752350382</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.588814525342824</v>
@@ -7812,7 +7704,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.479452823689444</v>
+        <v>1.421253659249304</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.51967604216662</v>
@@ -7901,7 +7793,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.472776685449428</v>
+        <v>1.419411129428793</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.529106173192094</v>
@@ -7990,7 +7882,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.460624071599382</v>
+        <v>1.401915077178716</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.480994455711034</v>
@@ -8079,7 +7971,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.457231610144816</v>
+        <v>1.404008544129958</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.152150030180565</v>
@@ -8168,7 +8060,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.456367734761528</v>
+        <v>1.403199538144988</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.508098289605339</v>
@@ -8257,7 +8149,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453680128240293</v>
+        <v>1.40341707569867</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.452721091345828</v>
@@ -8346,7 +8238,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.451984894898311</v>
+        <v>1.407019150301668</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.317344112630553</v>
@@ -8435,7 +8327,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.444911402033351</v>
+        <v>1.400088168782397</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.53809587252329</v>
@@ -8524,7 +8416,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.456813396335925</v>
+        <v>1.413632530100143</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.412362845746944</v>
@@ -8613,7 +8505,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.446550885505672</v>
+        <v>1.408731117191133</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.524687994216985</v>
@@ -8702,7 +8594,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.439393588685413</v>
+        <v>1.401207555879169</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.516398427007538</v>
@@ -8791,7 +8683,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.420736009588378</v>
+        <v>1.380750252621149</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.478641528018702</v>
@@ -8880,7 +8772,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.415403457900613</v>
+        <v>1.372733658915967</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.334845517315627</v>
@@ -8969,7 +8861,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.431217167810795</v>
+        <v>1.388229586319988</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.437651002810387</v>
@@ -9058,7 +8950,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.425900394335177</v>
+        <v>1.38641609932644</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.469995174795887</v>
@@ -9147,7 +9039,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.430264742921154</v>
+        <v>1.391612159643102</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.39640938713135</v>
@@ -9236,7 +9128,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.43030215800782</v>
+        <v>1.385355764680534</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.464413959534321</v>
@@ -9325,7 +9217,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.426483009300024</v>
+        <v>1.388869680542824</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.235361816173871</v>
@@ -9414,7 +9306,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.404554500399154</v>
+        <v>1.367899308496551</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.340325827182608</v>
@@ -9503,7 +9395,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.404442297199764</v>
+        <v>1.373969379894526</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.404778693124881</v>
@@ -9592,7 +9484,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.408098534024575</v>
+        <v>1.372958130249399</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.480374289888491</v>
@@ -9681,7 +9573,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.400936907399273</v>
+        <v>1.365238927578427</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.416839676560076</v>
@@ -9770,7 +9662,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.399147808291621</v>
+        <v>1.359313102043998</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.391824108752895</v>
@@ -9859,7 +9751,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.397142285741359</v>
+        <v>1.355475020994821</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.334287148848413</v>
@@ -9948,7 +9840,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.400369592063946</v>
+        <v>1.349048338436685</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.553493677447928</v>
@@ -10037,7 +9929,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.38983887816378</v>
+        <v>1.348138898800485</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.477123263742349</v>
@@ -10126,7 +10018,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.390034697032716</v>
+        <v>1.354431750865873</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.475679905041602</v>
@@ -10215,7 +10107,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.39366075831462</v>
+        <v>1.357460346615283</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.542317695903436</v>
@@ -10304,7 +10196,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.397057449275272</v>
+        <v>1.358466455518636</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.634684033471491</v>
@@ -10393,7 +10285,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.403294726165759</v>
+        <v>1.364313691356218</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.587591083772582</v>
@@ -10482,7 +10374,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.394063933415213</v>
+        <v>1.353409975230473</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.583204454037651</v>
@@ -10768,7 +10660,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469998600077546</v>
+        <v>1.434785627879601</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.881272380382865</v>
@@ -10857,7 +10749,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.458489003211035</v>
+        <v>1.419503438772301</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.838056046175661</v>
@@ -10946,7 +10838,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.448608837049235</v>
+        <v>1.40878248384907</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.805000919378068</v>
@@ -11035,7 +10927,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.442397698963757</v>
+        <v>1.406283320970434</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.605648791979956</v>
@@ -11124,7 +11016,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.444348320317583</v>
+        <v>1.408257016401153</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.812393515121992</v>
@@ -11213,7 +11105,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.444387977402415</v>
+        <v>1.408283624208212</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.619468279816832</v>
@@ -11302,7 +11194,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.448244027211608</v>
+        <v>1.412924766982161</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.921359412264978</v>
@@ -11391,7 +11283,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.444288927478046</v>
+        <v>1.406763134741379</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.889233185884023</v>
@@ -11480,7 +11372,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.435848256666954</v>
+        <v>1.400232992234523</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.807005512088641</v>
@@ -11569,7 +11461,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.424745720527938</v>
+        <v>1.384678525713877</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.574751642509662</v>
@@ -11658,7 +11550,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.41318720570008</v>
+        <v>1.375469489417969</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.619135458681871</v>
@@ -11747,7 +11639,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.408840512345326</v>
+        <v>1.372590699404376</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.653976527380648</v>
@@ -11836,7 +11728,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.42353079673974</v>
+        <v>1.387074462286881</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.622421121618004</v>
@@ -11925,7 +11817,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.414640776265786</v>
+        <v>1.377865192289393</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.322113653874205</v>
@@ -12014,7 +11906,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.417661556169955</v>
+        <v>1.381320191241689</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.523150957778203</v>
@@ -12103,7 +11995,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.420761803339375</v>
+        <v>1.384919121341259</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.673480493030545</v>
@@ -12192,7 +12084,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.425423971767371</v>
+        <v>1.389297623890978</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.675759810288149</v>
@@ -12281,7 +12173,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.432504916050558</v>
+        <v>1.393126860997947</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.690345175325742</v>
@@ -12370,7 +12262,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.425483478224778</v>
+        <v>1.384839736416954</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.578196116539142</v>
@@ -12459,7 +12351,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.415555397785337</v>
+        <v>1.373587789273736</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.631872579607534</v>
@@ -12548,7 +12440,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.404669546218321</v>
+        <v>1.369665157294846</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.624544862002248</v>
@@ -12637,7 +12529,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.404395652651525</v>
+        <v>1.369020000906163</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.547375768925052</v>
@@ -12726,7 +12618,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.402922692731672</v>
+        <v>1.367794120906726</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.595238133074622</v>
@@ -12815,7 +12707,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.393737539415552</v>
+        <v>1.355292499876936</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.387517069910256</v>
@@ -12904,7 +12796,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.400814955181743</v>
+        <v>1.363599568316</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.467683103313707</v>
@@ -12993,7 +12885,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.409708701518049</v>
+        <v>1.369577489146327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.871943782027547</v>
@@ -13082,7 +12974,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.413807118051822</v>
+        <v>1.372390257099048</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.859396421753853</v>
@@ -13171,7 +13063,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.413024794686282</v>
+        <v>1.36923096234001</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.839360373746501</v>
@@ -13260,7 +13152,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.425042501443418</v>
+        <v>1.378915030186018</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.67851789240064</v>
@@ -13349,7 +13241,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.40907369865285</v>
+        <v>1.365547371375933</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.626976808919821</v>
@@ -13438,7 +13330,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.412236235834831</v>
+        <v>1.365568906448553</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.548525365037745</v>
@@ -13527,7 +13419,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.404246643487277</v>
+        <v>1.36236691419603</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.559039000809762</v>
@@ -13616,7 +13508,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.396278550640299</v>
+        <v>1.344511163477876</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.442043714365027</v>
@@ -13705,7 +13597,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.401483710231085</v>
+        <v>1.353411686454686</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.429259472674909</v>
@@ -13794,7 +13686,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.404990347973512</v>
+        <v>1.350152828968701</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.536333532712325</v>
@@ -13883,7 +13775,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.406223718399091</v>
+        <v>1.351071280937516</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.41467242984757</v>
@@ -13972,7 +13864,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.408680175268415</v>
+        <v>1.359661312917532</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.311499947631328</v>
@@ -14061,7 +13953,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.402763429458604</v>
+        <v>1.352128339898511</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.565324696049936</v>
@@ -14150,7 +14042,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.402963384213215</v>
+        <v>1.356143600788215</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.555982527470519</v>
@@ -14239,7 +14131,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.388547645596203</v>
+        <v>1.34687983961255</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.519394638235972</v>
@@ -14328,7 +14220,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.386199741980947</v>
+        <v>1.345884230363333</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.53697423756378</v>
@@ -14417,7 +14309,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.387955707790718</v>
+        <v>1.348028631118865</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.483609901989453</v>
@@ -14506,7 +14398,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.391169145633064</v>
+        <v>1.352222137611254</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.482567427485788</v>
@@ -14595,7 +14487,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.393653954771809</v>
+        <v>1.357058514998726</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.474747894158845</v>
@@ -14684,7 +14576,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.383258819560896</v>
+        <v>1.353201120217543</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.269013838531488</v>
@@ -14773,7 +14665,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.388199991934183</v>
+        <v>1.360446843773623</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.415205739010058</v>
@@ -14862,7 +14754,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.395213628042834</v>
+        <v>1.362566579423764</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.488771802476867</v>
@@ -14951,7 +14843,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.398366976472837</v>
+        <v>1.375181089982497</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.216031786408017</v>
@@ -15040,7 +14932,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.398193309616395</v>
+        <v>1.374559616073092</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.64591827841162</v>
@@ -15129,7 +15021,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.409221136752757</v>
+        <v>1.390849264170036</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.549173123668885</v>
@@ -15218,7 +15110,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.417429398076791</v>
+        <v>1.388979634456606</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.474830175684437</v>
@@ -15307,7 +15199,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.412955964611288</v>
+        <v>1.383906590074402</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.374106951364329</v>
@@ -15396,7 +15288,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.419639284798891</v>
+        <v>1.387843639159455</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.418977422493413</v>
@@ -15485,7 +15377,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.442121573262856</v>
+        <v>1.40621534620893</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.662818257587404</v>
@@ -15574,7 +15466,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.453101679838908</v>
+        <v>1.398761577708859</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.451292464558244</v>
@@ -15663,7 +15555,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.441456856780627</v>
+        <v>1.393514872197233</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.517363988703457</v>
@@ -15752,7 +15644,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.434959847884334</v>
+        <v>1.389350473420616</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.575175892937585</v>
@@ -15841,7 +15733,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.437229632575032</v>
+        <v>1.389695999740487</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.608011372284285</v>
@@ -15930,7 +15822,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.447879686152211</v>
+        <v>1.396140186572904</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.611234297740646</v>
@@ -16019,7 +15911,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.458547332386831</v>
+        <v>1.402317873047236</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.805773556118936</v>
@@ -16108,7 +16000,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.459793579415371</v>
+        <v>1.401216739864273</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.642453245760043</v>
@@ -16394,7 +16286,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539902369755227</v>
+        <v>1.478829452193464</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.12294364586873</v>
@@ -16483,7 +16375,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.557559147565632</v>
+        <v>1.489862787801428</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.936715289231592</v>
@@ -16572,7 +16464,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.55871235545486</v>
+        <v>1.484631137363159</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.154173309933314</v>
@@ -16661,7 +16553,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.547005534075083</v>
+        <v>1.487613995937799</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.880774632127672</v>
@@ -16750,7 +16642,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540744015565697</v>
+        <v>1.489631492696488</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.909148921770949</v>
@@ -16839,7 +16731,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.533357633781011</v>
+        <v>1.480161024316527</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.870543783817234</v>
@@ -16928,7 +16820,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.530228549712581</v>
+        <v>1.470897735612337</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.877334673120083</v>
@@ -17017,7 +16909,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.527978648605508</v>
+        <v>1.467615042928396</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.673576721249594</v>
@@ -17106,7 +16998,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.513785483202747</v>
+        <v>1.453281261238286</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.149517424924831</v>
@@ -17195,7 +17087,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.513277794555034</v>
+        <v>1.453989068219166</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.830910224140308</v>
@@ -17284,7 +17176,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.510809189623947</v>
+        <v>1.453593916499666</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.900752669740111</v>
@@ -17373,7 +17265,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503049043931958</v>
+        <v>1.44711991539707</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.869570499016026</v>
@@ -17462,7 +17354,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.503055342656841</v>
+        <v>1.447359677061392</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.880349369854945</v>
@@ -17551,7 +17443,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.505294775406343</v>
+        <v>1.449479157485946</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.65593869521334</v>
@@ -17640,7 +17532,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.511363456296169</v>
+        <v>1.450874182735199</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.06861740561477</v>
@@ -17729,7 +17621,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.519330758057141</v>
+        <v>1.455317532864725</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.079880020057312</v>
@@ -17818,7 +17710,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508244387517778</v>
+        <v>1.448126841824078</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.939989200818107</v>
@@ -17907,7 +17799,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.50606098532089</v>
+        <v>1.450591813993054</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.778081299986696</v>
@@ -17996,7 +17888,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.522520929145958</v>
+        <v>1.459562975903121</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.843645038585479</v>
@@ -18085,7 +17977,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.518646523435076</v>
+        <v>1.453190271451506</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.846885454713877</v>
@@ -18174,7 +18066,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.517131291496153</v>
+        <v>1.455920552713755</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.058077188459106</v>
@@ -18263,7 +18155,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514459402673777</v>
+        <v>1.451893259412556</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.085145014551435</v>
@@ -18352,7 +18244,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.511429860970928</v>
+        <v>1.447254654999938</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.761625915625905</v>
@@ -18441,7 +18333,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.516478132937413</v>
+        <v>1.453383511493624</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.942275048014317</v>
@@ -18530,7 +18422,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.522540625628236</v>
+        <v>1.457213820165733</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.975509769627079</v>
@@ -18619,7 +18511,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.528660733869654</v>
+        <v>1.463527778049044</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.416690013517741</v>
@@ -18708,7 +18600,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.525101865967988</v>
+        <v>1.459355358041986</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.321619548022638</v>
@@ -18797,7 +18689,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533370811974132</v>
+        <v>1.46548901988367</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.230380322675844</v>
@@ -18886,7 +18778,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.536074905918914</v>
+        <v>1.467573364869134</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.017843331887878</v>
@@ -18975,7 +18867,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.522311639653007</v>
+        <v>1.459152307844675</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.073723026322113</v>
@@ -19064,7 +18956,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.517278901546793</v>
+        <v>1.457314130895116</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.021684456289411</v>
@@ -19153,7 +19045,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.525879660961372</v>
+        <v>1.471159602268485</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.995233594222852</v>
@@ -19242,7 +19134,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.512892790717248</v>
+        <v>1.456975728819763</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.646172306233586</v>
@@ -19331,7 +19223,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.51060382817761</v>
+        <v>1.454270908895323</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.524442919547904</v>
@@ -19420,7 +19312,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.514374109142431</v>
+        <v>1.456406437903933</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.601980635871433</v>
@@ -19509,7 +19401,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.509559646142017</v>
+        <v>1.452397217376551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.715658959735714</v>
@@ -19598,7 +19490,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.511473488740459</v>
+        <v>1.460612782026453</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.625970609624534</v>
@@ -19687,7 +19579,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505672932425476</v>
+        <v>1.459296454044303</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.888246102350791</v>
@@ -19776,7 +19668,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51137801569683</v>
+        <v>1.465463357890282</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.786702085086726</v>
@@ -19865,7 +19757,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.493786745736447</v>
+        <v>1.452711453606968</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.831078383006659</v>
@@ -19954,7 +19846,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.490050383096894</v>
+        <v>1.448411289345996</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.880440716653107</v>
@@ -20043,7 +19935,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.482385001129773</v>
+        <v>1.440704952444956</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.648307053660537</v>
@@ -20132,7 +20024,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.46974283514141</v>
+        <v>1.428766363410231</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.889340127624167</v>
@@ -20221,7 +20113,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.477735535757595</v>
+        <v>1.433664693032649</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.800171349995533</v>
@@ -20310,7 +20202,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.480732158125435</v>
+        <v>1.439177631856965</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.673372748001275</v>
@@ -20399,7 +20291,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.480917490408692</v>
+        <v>1.441743030180312</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.61998085832782</v>
@@ -20488,7 +20380,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.477562111633189</v>
+        <v>1.433410537734571</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.72942622892722</v>
@@ -20577,7 +20469,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.48615627253512</v>
+        <v>1.444881956484846</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.394089582571568</v>
@@ -20666,7 +20558,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.477120794288995</v>
+        <v>1.436084920637752</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.736568201474451</v>
@@ -20755,7 +20647,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.479054204430639</v>
+        <v>1.437900441994118</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.765204622812777</v>
@@ -20844,7 +20736,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.49074631353622</v>
+        <v>1.450071603838156</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.511976410941199</v>
@@ -20933,7 +20825,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.481582613408803</v>
+        <v>1.436941266109776</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.967977172617653</v>
@@ -21022,7 +20914,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.491773313937425</v>
+        <v>1.445230773452816</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.654281053395441</v>
@@ -21111,7 +21003,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.492952223733607</v>
+        <v>1.443339495602419</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.703472661596448</v>
@@ -21200,7 +21092,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.496735174181126</v>
+        <v>1.43426246418661</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.538896236106926</v>
@@ -21289,7 +21181,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.493133338045104</v>
+        <v>1.433612719574405</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.414569230919643</v>
@@ -21378,7 +21270,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.50142949200127</v>
+        <v>1.44250725195519</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.479240686812411</v>
@@ -21467,7 +21359,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.514365266465859</v>
+        <v>1.4535644680214</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.746626949451612</v>
@@ -21556,7 +21448,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.512669811036301</v>
+        <v>1.451116756390888</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.773918748097497</v>
@@ -21645,7 +21537,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.520342429753066</v>
+        <v>1.457903300948051</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.771433653634222</v>
@@ -21734,7 +21626,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.519457337707947</v>
+        <v>1.454594005270858</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.778443724893293</v>
@@ -22020,7 +21912,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.551007456404511</v>
+        <v>1.494279205952976</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.397527403716491</v>
@@ -22109,7 +22001,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553919897109034</v>
+        <v>1.498770804977268</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.443594710243911</v>
@@ -22198,7 +22090,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.537115517598782</v>
+        <v>1.475939643583822</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.987282028391202</v>
@@ -22287,7 +22179,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.535129694029992</v>
+        <v>1.474890108100133</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.031652250162222</v>
@@ -22376,7 +22268,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526618064217607</v>
+        <v>1.470256574931217</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.074450312989633</v>
@@ -22465,7 +22357,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.516880552255164</v>
+        <v>1.466196630550286</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.983582134304866</v>
@@ -22554,7 +22446,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.507180348267574</v>
+        <v>1.456109920289427</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.900818952911676</v>
@@ -22643,7 +22535,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.502195066887854</v>
+        <v>1.450658108617124</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.970156239851871</v>
@@ -22732,7 +22624,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.498359157678143</v>
+        <v>1.440624779759764</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.821933469673296</v>
@@ -22821,7 +22713,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.481342260034404</v>
+        <v>1.427305552906699</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.703363379260254</v>
@@ -22910,7 +22802,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.483091425787741</v>
+        <v>1.435296461444624</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.941556658954571</v>
@@ -22999,7 +22891,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475399543444991</v>
+        <v>1.424383267986174</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.916659209542343</v>
@@ -23088,7 +22980,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.47706287299259</v>
+        <v>1.421616677355547</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.95702961091598</v>
@@ -23177,7 +23069,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.453936712519048</v>
+        <v>1.404692584244569</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.595658483856249</v>
@@ -23266,7 +23158,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.453638734238103</v>
+        <v>1.40650843864906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.438019579176662</v>
@@ -23355,7 +23247,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.459836127536453</v>
+        <v>1.409606186574116</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.454861146971668</v>
@@ -23444,7 +23336,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.459284650706353</v>
+        <v>1.405074865114104</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.633763422908683</v>
@@ -23533,7 +23425,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.468736064420421</v>
+        <v>1.408745973851822</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.50213802450958</v>
@@ -23622,7 +23514,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.477067624583229</v>
+        <v>1.410958876877349</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.490110317336786</v>
@@ -23711,7 +23603,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.477654113797219</v>
+        <v>1.408763514877148</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.399384270948137</v>
@@ -23800,7 +23692,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.473317112686387</v>
+        <v>1.404589649630704</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.645369702591834</v>
@@ -23889,7 +23781,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.463515725787794</v>
+        <v>1.397552589966573</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.63011969053452</v>
@@ -23978,7 +23870,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.461320219257675</v>
+        <v>1.394422881732985</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.461287996909796</v>
@@ -24067,7 +23959,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.44189039986068</v>
+        <v>1.38155393537632</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.480741924517323</v>
@@ -24156,7 +24048,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.442722896833168</v>
+        <v>1.383329556687577</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.496191923338468</v>
@@ -24245,7 +24137,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.44501857454529</v>
+        <v>1.385590203543666</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.556350155778262</v>
@@ -24334,7 +24226,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.449017149705196</v>
+        <v>1.389787832395027</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.511206064475601</v>
@@ -24423,7 +24315,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.447766174548347</v>
+        <v>1.387351956932052</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.427013761687555</v>
@@ -24512,7 +24404,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.480864856311514</v>
+        <v>1.412832904529464</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.908211827183814</v>
@@ -24601,7 +24493,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.467962477625998</v>
+        <v>1.399336554530105</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.65678703700997</v>
@@ -24690,7 +24582,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.470526945599854</v>
+        <v>1.401395310720211</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.524573367096055</v>
@@ -24779,7 +24671,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.4673620856012</v>
+        <v>1.400624286944387</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.505482566514663</v>
@@ -24868,7 +24760,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.455249703678213</v>
+        <v>1.387710729305251</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.555317851646032</v>
@@ -24957,7 +24849,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.450366223750125</v>
+        <v>1.389188503601605</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.354308947847484</v>
@@ -25046,7 +24938,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.44966753120906</v>
+        <v>1.387267544663642</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.543434916176823</v>
@@ -25135,7 +25027,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453484221636293</v>
+        <v>1.392603432821502</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.597135408335494</v>
@@ -25224,7 +25116,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.459913299638574</v>
+        <v>1.402449640134584</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.422634957347013</v>
@@ -25313,7 +25205,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.459432905215103</v>
+        <v>1.40130671563946</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.550497469830876</v>
@@ -25402,7 +25294,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.464961022100941</v>
+        <v>1.403360877054517</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.433889148584515</v>
@@ -25491,7 +25383,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.453862382690789</v>
+        <v>1.39526291681501</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.521830432921487</v>
@@ -25580,7 +25472,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.448796320233355</v>
+        <v>1.394569550390969</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.566483093253382</v>
@@ -25669,7 +25561,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.44016482102059</v>
+        <v>1.385725394759255</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.488412750391158</v>
@@ -25758,7 +25650,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.432388805245426</v>
+        <v>1.380188564426312</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.595649496150686</v>
@@ -25847,7 +25739,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.431932644768621</v>
+        <v>1.380162851187081</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.52093230049</v>
@@ -25936,7 +25828,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.428497592091093</v>
+        <v>1.382441177719677</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.417620380889753</v>
@@ -26025,7 +25917,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.421079876031005</v>
+        <v>1.376094059492972</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.45036108664384</v>
@@ -26114,7 +26006,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.417596651886117</v>
+        <v>1.369656973830499</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.412594004167844</v>
@@ -26203,7 +26095,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.420490864190832</v>
+        <v>1.376897960105743</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.222845401406137</v>
@@ -26292,7 +26184,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.41294362604849</v>
+        <v>1.368360758575549</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.589095295259153</v>
@@ -26381,7 +26273,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.417816923098468</v>
+        <v>1.371298241799973</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.560675975575105</v>
@@ -26470,7 +26362,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.423619524241929</v>
+        <v>1.366926953173478</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.413043223341218</v>
@@ -26559,7 +26451,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.415481823767941</v>
+        <v>1.35674381184225</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.569017079356493</v>
@@ -26648,7 +26540,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.415433516132073</v>
+        <v>1.357280765808319</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.499175512416675</v>
@@ -26737,7 +26629,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.432909085857995</v>
+        <v>1.373009182264603</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.5161623930977</v>
@@ -26826,7 +26718,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.438201105285346</v>
+        <v>1.363836293961322</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.519580500972928</v>
@@ -26915,7 +26807,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.427000581790981</v>
+        <v>1.35578129464211</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.447924016504725</v>
@@ -27004,7 +26896,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.436616685285444</v>
+        <v>1.36875980740333</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.468695421242368</v>
@@ -27093,7 +26985,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.443623121796744</v>
+        <v>1.373475072659547</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.548585108582028</v>
@@ -27182,7 +27074,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.442937778287743</v>
+        <v>1.372724852335899</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.536013620481923</v>
@@ -27271,7 +27163,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.453058837965297</v>
+        <v>1.379089285206162</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.579291188771487</v>
@@ -27360,7 +27252,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.465805919318102</v>
+        <v>1.387746869965072</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.507662538500915</v>
@@ -27646,7 +27538,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.480803274595079</v>
+        <v>1.475205466383485</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.780345905445058</v>
@@ -27735,7 +27627,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.483220626456941</v>
+        <v>1.474733550068266</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.824584390876291</v>
@@ -27824,7 +27716,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.483122863870884</v>
+        <v>1.468967555632284</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.601929255361803</v>
@@ -27913,7 +27805,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.482401883206539</v>
+        <v>1.46463334907138</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.820091121133514</v>
@@ -28002,7 +27894,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.482883306182676</v>
+        <v>1.461909747446337</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.696389566626864</v>
@@ -28091,7 +27983,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478541508041323</v>
+        <v>1.460623999339706</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.176518697616561</v>
@@ -28180,7 +28072,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.468387772907558</v>
+        <v>1.452357813501432</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.164796392633</v>
@@ -28269,7 +28161,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.476717187936165</v>
+        <v>1.45474649970606</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.865272748594404</v>
@@ -28358,7 +28250,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.477118825308549</v>
+        <v>1.454828187499073</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.769665070192359</v>
@@ -28447,7 +28339,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.458196713567634</v>
+        <v>1.432099912003476</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.804111617808658</v>
@@ -28536,7 +28428,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.460122115621941</v>
+        <v>1.436202786796456</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.92734820994135</v>
@@ -28625,7 +28517,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.461177050125655</v>
+        <v>1.42694650036196</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.955605602978129</v>
@@ -28714,7 +28606,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.459773711082813</v>
+        <v>1.425872167572531</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.753861540862709</v>
@@ -28803,7 +28695,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.44748726645334</v>
+        <v>1.412512252786524</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.317130726853672</v>
@@ -28892,7 +28784,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.435026386637327</v>
+        <v>1.401590190123192</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.428446958098004</v>
@@ -28981,7 +28873,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.43376683925561</v>
+        <v>1.401012335730614</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.468437710231244</v>
@@ -29070,7 +28962,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.434198385833113</v>
+        <v>1.400553379339173</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.502298590720103</v>
@@ -29159,7 +29051,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.443053059115652</v>
+        <v>1.403056316425136</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.491291753931303</v>
@@ -29248,7 +29140,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.428395364680698</v>
+        <v>1.393267483159421</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.412149844469619</v>
@@ -29337,7 +29229,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.425429661897629</v>
+        <v>1.38763919690403</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.461398097311262</v>
@@ -29426,7 +29318,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.42499367387901</v>
+        <v>1.385757337960287</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.385933018727824</v>
@@ -29515,7 +29407,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.427715397955234</v>
+        <v>1.388939276823667</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.406991225865205</v>
@@ -29604,7 +29496,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.424342787135338</v>
+        <v>1.389351777922925</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.553533411508522</v>
@@ -29693,7 +29585,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.418446462260103</v>
+        <v>1.386166296896287</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.394533070118763</v>
@@ -29782,7 +29674,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.432836863101363</v>
+        <v>1.398693052366567</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.442048777106942</v>
@@ -29871,7 +29763,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.425104160851871</v>
+        <v>1.39253031819069</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.460707354680921</v>
@@ -29960,7 +29852,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.435596041371129</v>
+        <v>1.404919485078389</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.651280218385923</v>
@@ -30049,7 +29941,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.427777558730821</v>
+        <v>1.400895389717618</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.607131589089997</v>
@@ -30138,7 +30030,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.465126507616721</v>
+        <v>1.43465153373524</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.800624134740386</v>
@@ -30227,7 +30119,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.462758892792207</v>
+        <v>1.434866754118615</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.820647304813198</v>
@@ -30316,7 +30208,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.44721870298466</v>
+        <v>1.41748472268266</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.751207523928857</v>
@@ -30405,7 +30297,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.428830143090629</v>
+        <v>1.403468043004516</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.634589754865754</v>
@@ -30494,7 +30386,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.417289122512783</v>
+        <v>1.386487592769099</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.633947485231651</v>
@@ -30583,7 +30475,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.422217741391372</v>
+        <v>1.401834991562622</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.791667723243313</v>
@@ -30672,7 +30564,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.42657286234773</v>
+        <v>1.402646570996069</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.801359209487973</v>
@@ -30761,7 +30653,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.426892059994715</v>
+        <v>1.400885560468924</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.674987173671494</v>
@@ -30850,7 +30742,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.414439979549691</v>
+        <v>1.394823832025379</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.827507645833993</v>
@@ -30939,7 +30831,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.417698214840721</v>
+        <v>1.397699903984196</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.676936451038175</v>
@@ -31028,7 +30920,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.411489053853583</v>
+        <v>1.388806255334661</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.864996148574459</v>
@@ -31117,7 +31009,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.398705002161672</v>
+        <v>1.376746118836045</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.635112022390261</v>
@@ -31206,7 +31098,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.397474217658613</v>
+        <v>1.378176083228727</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.782592948657063</v>
@@ -31295,7 +31187,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.378144124607318</v>
+        <v>1.360325205376448</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.860629890861842</v>
@@ -31384,7 +31276,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.380485507233931</v>
+        <v>1.364166199272646</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.855278352776974</v>
@@ -31473,7 +31365,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.380742892251691</v>
+        <v>1.360287027278784</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.814516020616763</v>
@@ -31562,7 +31454,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.381832985506948</v>
+        <v>1.358326775019911</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.483920895194473</v>
@@ -31651,7 +31543,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.397716651300552</v>
+        <v>1.3776502001618</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.432817253122173</v>
@@ -31740,7 +31632,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.413816737079171</v>
+        <v>1.386115015108056</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.761253713626268</v>
@@ -31829,7 +31721,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.423542316699816</v>
+        <v>1.397705590506716</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.296333242098098</v>
@@ -31918,7 +31810,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.420865548654004</v>
+        <v>1.387758771807118</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.556579419914141</v>
@@ -32007,7 +31899,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.420205645242964</v>
+        <v>1.389348135527394</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.57632159162193</v>
@@ -32096,7 +31988,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.432013142611104</v>
+        <v>1.394814535709645</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.451922104040035</v>
@@ -32185,7 +32077,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.440219005469717</v>
+        <v>1.403783132222428</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.53681395924759</v>
@@ -32274,7 +32166,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.440135705344073</v>
+        <v>1.404947470241331</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.571878282988692</v>
@@ -32363,7 +32255,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.460145758191209</v>
+        <v>1.423414689007571</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.782900176874565</v>
@@ -32452,7 +32344,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.477306387425069</v>
+        <v>1.426547859793987</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.659340209258249</v>
@@ -32541,7 +32433,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.474102932354501</v>
+        <v>1.420533061659527</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.692397686398037</v>
@@ -32630,7 +32522,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.492987322480212</v>
+        <v>1.437323992174214</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.572660651365374</v>
@@ -32719,7 +32611,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.496047659519097</v>
+        <v>1.43931561352376</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.596445335264359</v>
@@ -32808,7 +32700,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.494848361215752</v>
+        <v>1.440375887657068</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.647019017042259</v>
@@ -32897,7 +32789,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.498403255139698</v>
+        <v>1.444789198593903</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.762908455827402</v>
@@ -32986,7 +32878,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.475040806293578</v>
+        <v>1.421005023798144</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.82312789335852</v>
@@ -33272,7 +33164,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.505601031227626</v>
+        <v>1.483548180063476</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.321987629781395</v>
@@ -33361,7 +33253,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.545843334445804</v>
+        <v>1.514055621565932</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.676496406390633</v>
@@ -33450,7 +33342,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519409026797451</v>
+        <v>1.487397515769397</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.537653116509958</v>
@@ -33539,7 +33431,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.485397550088909</v>
+        <v>1.460797892229943</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.410152314749221</v>
@@ -33628,7 +33520,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.475859579328786</v>
+        <v>1.455673223952268</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.463374085023511</v>
@@ -33717,7 +33609,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.463961109767909</v>
+        <v>1.446776513928177</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.466460766793229</v>
@@ -33806,7 +33698,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.465390992234263</v>
+        <v>1.445141760184361</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.353944813126171</v>
@@ -33895,7 +33787,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463579204735901</v>
+        <v>1.438701128638801</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.367953330211995</v>
@@ -33984,7 +33876,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.436616682107994</v>
+        <v>1.416212501018802</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.252729096560791</v>
@@ -34073,7 +33965,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.450626188581505</v>
+        <v>1.42757600926011</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.542658232885</v>
@@ -34162,7 +34054,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443230069914628</v>
+        <v>1.420708000276216</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.428675351787982</v>
@@ -34251,7 +34143,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.442748360525358</v>
+        <v>1.417292911028394</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.219389347416375</v>
@@ -34340,7 +34232,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.452104117494416</v>
+        <v>1.423502971295723</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.361920721573433</v>
@@ -34429,7 +34321,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.437310435136304</v>
+        <v>1.411301206129014</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.339890875234049</v>
@@ -34518,7 +34410,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.432082187445313</v>
+        <v>1.407649375212745</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.49493165697251</v>
@@ -34607,7 +34499,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.443196962429429</v>
+        <v>1.414319718017135</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.417614527018012</v>
@@ -34696,7 +34588,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.440585094045147</v>
+        <v>1.406580345017061</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.472897500533535</v>
@@ -34785,7 +34677,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450916596925927</v>
+        <v>1.40878216699003</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.483795676214761</v>
@@ -34874,7 +34766,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473975880479196</v>
+        <v>1.419102286032415</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.346143112684228</v>
@@ -34963,7 +34855,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.445970871448617</v>
+        <v>1.396087716372171</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.560310371155047</v>
@@ -35052,7 +34944,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.452990246944648</v>
+        <v>1.401195986053277</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.449652286949599</v>
@@ -35141,7 +35033,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.44089804243984</v>
+        <v>1.388037941303363</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.359190298634161</v>
@@ -35230,7 +35122,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.438436564794196</v>
+        <v>1.383376814001813</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.523979032024097</v>
@@ -35319,7 +35211,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.442579487689809</v>
+        <v>1.383800541387374</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.286869744499163</v>
@@ -35408,7 +35300,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.43132955761439</v>
+        <v>1.370161827433111</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.364777277779867</v>
@@ -35497,7 +35389,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.432937571337296</v>
+        <v>1.369847429733005</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.520627783744588</v>
@@ -35586,7 +35478,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432499953434963</v>
+        <v>1.367733533646014</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.37698797913123</v>
@@ -35675,7 +35567,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.430218781666758</v>
+        <v>1.364104068331838</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.551766786110197</v>
@@ -35764,7 +35656,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.423632687547821</v>
+        <v>1.357585099110889</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.484816655093145</v>
@@ -35853,7 +35745,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.416271983124174</v>
+        <v>1.348509728529332</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.373059703996057</v>
@@ -35942,7 +35834,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.412984452596028</v>
+        <v>1.346331864816851</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.46084237231112</v>
@@ -36031,7 +35923,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.397062535064942</v>
+        <v>1.337527927556254</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.439172249890435</v>
@@ -36120,7 +36012,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.396355419883945</v>
+        <v>1.334445782953853</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.401473368146456</v>
@@ -36209,7 +36101,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.405318477120518</v>
+        <v>1.346383590312038</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.187273261171161</v>
@@ -36298,7 +36190,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.416974937661129</v>
+        <v>1.35850028779832</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.511513013295767</v>
@@ -36387,7 +36279,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.413421125529922</v>
+        <v>1.356097464587067</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.507114136269775</v>
@@ -36476,7 +36368,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.407080099742456</v>
+        <v>1.357948665308259</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.390130016522673</v>
@@ -36565,7 +36457,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.405233191921008</v>
+        <v>1.356849033759118</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.357063871459517</v>
@@ -36654,7 +36546,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.416661560349871</v>
+        <v>1.365304229943551</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.346463778977886</v>
@@ -36743,7 +36635,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.407379046819105</v>
+        <v>1.362325910191361</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.38211756882155</v>
@@ -36832,7 +36724,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.402171336887855</v>
+        <v>1.359215765440716</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.432786511114179</v>
@@ -36921,7 +36813,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.382416420502967</v>
+        <v>1.341268167626753</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.431772553309385</v>
@@ -37010,7 +36902,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.379519228498348</v>
+        <v>1.341162171415967</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.253385277887944</v>
@@ -37099,7 +36991,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.394158197424978</v>
+        <v>1.354773379518631</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.2282827329271</v>
@@ -37188,7 +37080,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.390987355704224</v>
+        <v>1.358551459700385</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.320908981307109</v>
@@ -37277,7 +37169,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.399751705217802</v>
+        <v>1.369860391981286</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.233451126125739</v>
@@ -37366,7 +37258,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.407993025035934</v>
+        <v>1.372974361367974</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.308062224362776</v>
@@ -37455,7 +37347,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.413160723949286</v>
+        <v>1.382893812170986</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.239163091771275</v>
@@ -37544,7 +37436,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.394879011512527</v>
+        <v>1.361061454541646</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.277005256405473</v>
@@ -37633,7 +37525,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.391721113571133</v>
+        <v>1.359836101356024</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.294633955039281</v>
@@ -37722,7 +37614,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.399813750772632</v>
+        <v>1.361828615879163</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.376990007122506</v>
@@ -37811,7 +37703,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.397534029159681</v>
+        <v>1.357189136887729</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.26944022604609</v>
@@ -37900,7 +37792,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.400338549728427</v>
+        <v>1.357614862276723</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.384005004502634</v>
@@ -37989,7 +37881,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.409720345413412</v>
+        <v>1.364469202482695</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.219781647015902</v>
@@ -38078,7 +37970,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.417662726777724</v>
+        <v>1.356736548062009</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.336991091368593</v>
@@ -38167,7 +38059,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.406116853163083</v>
+        <v>1.348285979800823</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.346573381210859</v>
@@ -38256,7 +38148,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.409999971254362</v>
+        <v>1.356686423536686</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.484261042579486</v>
@@ -38345,7 +38237,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.419735354817881</v>
+        <v>1.363975108147922</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.590837599729333</v>
@@ -38434,7 +38326,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.420306286458748</v>
+        <v>1.363303798334377</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.601513646125982</v>
@@ -38523,7 +38415,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.428760840005283</v>
+        <v>1.368213275940196</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.637522129534056</v>
@@ -38612,7 +38504,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.418258145374681</v>
+        <v>1.355995110220461</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.628367896517463</v>
